--- a/xlsx/生物学_intext.xlsx
+++ b/xlsx/生物学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="948">
   <si>
     <t>生物学</t>
   </si>
@@ -29,7 +29,7 @@
     <t>大肠杆菌</t>
   </si>
   <si>
-    <t>政策_政策_政治學_生物学</t>
+    <t>政策_政策_政治学_生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%AA%E7%BE%9A</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%92%E9%87%91%E9%BE%9C%E5%B1%AC</t>
   </si>
   <si>
-    <t>大角金龜屬</t>
+    <t>大角金龟属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%AB%E6%A4%A4%E7%9B%AE</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>形式科學</t>
+    <t>形式科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>理論計算機科學</t>
+    <t>理论计算机科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理科學</t>
+    <t>物理科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%A2%B1%E7%90%86%E8%AE%BA</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%88%86%E5%AD%90%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>超分子化學</t>
+    <t>超分子化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%8C%96%E5%AD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%8C%96%E5%AD%A6</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%85%B8%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經典物理學</t>
+    <t>经典物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>現代物理學</t>
+    <t>现代物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗物理學</t>
+    <t>实验物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>粒子物理學</t>
+    <t>粒子物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%A6%BB%E5%AD%90%E4%BD%93</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E5%85%A5%E9%96%80</t>
   </si>
   <si>
-    <t>量子力學入門</t>
+    <t>量子力学入门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AD%E4%B9%89%E7%9B%B8%E5%AF%B9%E8%AE%BA</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>廣義相對論</t>
+    <t>广义相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8F%98%E5%AD%A6</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>弦理論</t>
+    <t>弦理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然地理學</t>
+    <t>自然地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>湖沼學</t>
+    <t>湖沼学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B0%A3%E5%80%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>古氣候學</t>
+    <t>古气候学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>古生態學</t>
+    <t>古生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A2%E7%B2%89%E5%AD%A6</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文學</t>
+    <t>天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E7%B3%BB%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>銀河系天文學</t>
+    <t>银河系天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>行星地質學</t>
+    <t>行星地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E7%A7%91%E5%AD%A6</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%A6</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>天體生物學</t>
+    <t>天体生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B8%A9%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E5%AD%B8</t>
   </si>
   <si>
-    <t>老人學</t>
+    <t>老人学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%A6</t>
@@ -725,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>放射生物學</t>
+    <t>放射生物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_biology</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
+    <t>社会生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統分類學</t>
+    <t>系统分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%A6</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>國際關係學</t>
+    <t>国际关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>科學教育</t>
+    <t>科学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -905,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%B7%A5%E7%A8%8B</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軍事工程</t>
+    <t>军事工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8%E4%BA%BA%E5%AD%A6</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療衛生科學</t>
+    <t>医疗卫生科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>牙醫學</t>
+    <t>牙医学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Midwifery</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -1055,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物統計學</t>
+    <t>生物统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A7%91%E5%AD%A6</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%A6</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理生物學</t>
+    <t>数理生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
@@ -1175,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>符號學</t>
+    <t>符号学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -1289,13 +1289,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>科學史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-科學</t>
+    <t>Template talk-科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -1313,25 +1310,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然科學</t>
+    <t>自然科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經驗主義</t>
+    <t>经验主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD</t>
@@ -1367,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物分類學</t>
+    <t>生物分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
+    <t>细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0</t>
@@ -1385,19 +1382,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96</t>
   </si>
   <si>
-    <t>進化</t>
+    <t>进化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>物種</t>
+    <t>物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -1409,21 +1406,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%A9%E6%85%8B</t>
   </si>
   <si>
-    <t>穩態</t>
+    <t>稳态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>分子生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90</t>
   </si>
   <si>
@@ -1433,9 +1424,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
@@ -1445,15 +1433,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>細胞生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%94%9F%E7%89%A9%E5%AD%A6)</t>
   </si>
   <si>
@@ -1469,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生物系統</t>
+    <t>生物系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -1481,9 +1463,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%8E%AF%E5%A2%83</t>
   </si>
   <si>
@@ -1499,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E6%96%87</t>
   </si>
   <si>
-    <t>希臘文</t>
+    <t>希腊文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E5%B0%BE</t>
@@ -1565,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B4%B0%E8%83%9E%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>多細胞生物</t>
+    <t>多细胞生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B5</t>
@@ -1589,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>代謝</t>
+    <t>代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA</t>
@@ -1607,7 +1586,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%BA%AB</t>
   </si>
   <si>
-    <t>基因庫</t>
+    <t>基因库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%81%E6%B0%8F%E8%A1%A8</t>
@@ -1637,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E8%AD%AF</t>
   </si>
   <si>
-    <t>轉譯</t>
+    <t>转译</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BA%E5%9F%BA%E9%85%B8</t>
@@ -1655,55 +1634,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E5%B3%B6%E7%B4%A0</t>
   </si>
   <si>
-    <t>胰島素</t>
+    <t>胰岛素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>內分泌系統</t>
+    <t>内分泌系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E7%88%BE%E8%92%99</t>
   </si>
   <si>
-    <t>荷爾蒙</t>
+    <t>荷尔蒙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E4%B8%8A%E8%85%BA</t>
   </si>
   <si>
-    <t>腎上腺</t>
+    <t>肾上腺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%9A%AE%E8%B3%AA%E6%BF%80%E7%B4%A0</t>
   </si>
   <si>
-    <t>糖皮質激素</t>
+    <t>糖皮质激素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%A6%96%E4%B8%98</t>
   </si>
   <si>
-    <t>下視丘</t>
+    <t>下视丘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E4%B8%8B%E5%9E%82%E9%AB%94</t>
   </si>
   <si>
-    <t>腦下垂體</t>
+    <t>脑下垂体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E8%85%8E%E4%B8%8A%E8%85%BA%E7%9A%AE%E8%B3%AA%E7%B4%A0</t>
   </si>
   <si>
-    <t>促腎上腺皮質素</t>
+    <t>促肾上腺皮质素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%B3%AA%E9%86%87</t>
   </si>
   <si>
-    <t>皮質醇</t>
+    <t>皮质醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E5%86%85%E5%B9%B3%E8%A1%A1</t>
@@ -1721,13 +1700,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%85%8B%E5%B9%B3%E8%A1%A1</t>
   </si>
   <si>
-    <t>動態平衡</t>
+    <t>动态平衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E5%9B%9E%E6%8E%88</t>
   </si>
   <si>
-    <t>負回授</t>
+    <t>负回授</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B0%E9%AB%98%E8%A1%80%E7%B3%96%E7%B4%A0</t>
@@ -1745,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>化學反應</t>
+    <t>化学反应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%85%BB%E7%94%9F%E7%89%A9</t>
@@ -1763,15 +1742,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>結構生物學</t>
+    <t>结构生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%86%E8%83%9E</t>
   </si>
   <si>
-    <t>细胞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92%E5%AD%A6</t>
   </si>
   <si>
@@ -1787,25 +1763,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%B5%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>基因組學</t>
+    <t>基因组学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA%E7%B5%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>蛋白質組學</t>
+    <t>蛋白质组学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E7%AE%97%E6%B3%95</t>
@@ -1835,9 +1808,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0</t>
   </si>
   <si>
-    <t>遗传</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%80%89%E6%8B%A9</t>
   </si>
   <si>
@@ -1847,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%B6%9C%E5%90%88%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>現代綜合理論</t>
+    <t>现代综合理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F_(%E7%94%9F%E7%89%A9)</t>
@@ -1865,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
-    <t>門 (生物)</t>
+    <t>门 (生物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B1_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
-    <t>綱 (生物)</t>
+    <t>纲 (生物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE_(%E7%94%9F%E7%89%A9)</t>
@@ -1889,37 +1859,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
-    <t>屬 (生物)</t>
+    <t>属 (生物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
-    <t>種 (生物)</t>
+    <t>种 (生物)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%90%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>雙名法</t>
+    <t>双名法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B6%B4</t>
   </si>
   <si>
-    <t>後綴</t>
+    <t>后缀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E9%BE%8D</t>
   </si>
   <si>
-    <t>恐龍</t>
+    <t>恐龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%A8%AE</t>
   </si>
   <si>
-    <t>亞種</t>
+    <t>亚种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%90%8D%E6%B3%95</t>
@@ -1931,15 +1901,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D</t>
   </si>
   <si>
-    <t>物种</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%AF%9F</t>
   </si>
   <si>
@@ -1985,13 +1949,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6</t>
   </si>
   <si>
-    <t>化学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%8F%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>細菌學</t>
+    <t>细菌学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%A6</t>
@@ -2087,7 +2048,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A7%A3%E6%B1%BA%E7%9A%84%E7%94%9F%E7%89%A9%E5%AD%B8%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>未解決的生物學問題</t>
+    <t>未解决的生物学问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E6%A0%B8%E7%94%9F%E7%89%A9</t>
@@ -2105,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%BA%90%E9%87%8D%E7%B5%84</t>
   </si>
   <si>
-    <t>同源重組</t>
+    <t>同源重组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%80%A7%E7%94%9F%E6%AE%96%E7%9A%84%E6%BC%94%E5%8C%96</t>
@@ -2123,9 +2084,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>動物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9%E7%94%9F%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -2147,7 +2105,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>農學</t>
+    <t>农学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E8%89%BA%E5%AD%A6</t>
@@ -2159,19 +2117,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D%E5%AD%B8</t>
   </si>
   <si>
-    <t>園藝學</t>
+    <t>园艺学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%AD%B8</t>
   </si>
   <si>
-    <t>林學</t>
+    <t>林学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物病理學</t>
+    <t>植物病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%88%86%E7%B1%BB%E5%AD%A6</t>
@@ -2183,19 +2141,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物生理學</t>
+    <t>植物生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%BD%A2%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物形態學</t>
+    <t>植物形态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物解剖學</t>
+    <t>植物解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -2207,9 +2165,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
@@ -2219,13 +2174,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D%E7%94%9F%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>代謝生化學</t>
+    <t>代谢生化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E7%B1%BB%E5%AD%A6</t>
@@ -2237,13 +2192,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%8A%80%E8%A1%93%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物技術學</t>
+    <t>生物技术学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B5%E7%B4%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>酵素工程學</t>
+    <t>酵素工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%B7%A5%E7%A8%8B</t>
@@ -2255,13 +2210,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>代謝工程學</t>
+    <t>代谢工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E9%AB%94%E5%AD%B8</t>
   </si>
   <si>
-    <t>基因體學</t>
+    <t>基因体学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -2273,13 +2228,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E8%A7%80%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>表觀遺傳學</t>
+    <t>表观遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>醫學工程</t>
+    <t>医学工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%95%B0%E5%AD%A6</t>
@@ -2297,13 +2252,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>淡水生物學</t>
+    <t>淡水生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -2321,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A4%8D%E7%89%A9%E5%91%BD%E5%90%8D%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>國際植物命名法規</t>
+    <t>国际植物命名法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DOI</t>
@@ -2333,19 +2285,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺灣大學</t>
+    <t>台湾大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -2363,13 +2315,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%8C%96%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾化學獎</t>
+    <t>诺贝尔化学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AP%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>AP生物學</t>
+    <t>AP生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8A%9B%E5%AD%A6</t>
@@ -2381,9 +2333,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
   </si>
   <si>
-    <t>生物统计学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Cellular_microbiology</t>
   </si>
   <si>
@@ -2393,27 +2342,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學生物學</t>
+    <t>化学生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>時間生物學</t>
+    <t>时间生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E8%A7%82%E9%81%97%E4%BC%A0%E5%AD%A6</t>
   </si>
   <si>
-    <t>表观遗传学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%BB%84%E5%AD%A6</t>
   </si>
   <si>
-    <t>基因组学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Human_biology</t>
   </si>
   <si>
@@ -2453,9 +2396,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
   </si>
   <si>
-    <t>社会生物学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E6%B3%95</t>
   </si>
   <si>
@@ -2471,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生態系統</t>
+    <t>生态系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E8%90%BD</t>
@@ -2489,9 +2429,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%99%A8</t>
   </si>
   <si>
-    <t>細胞器</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Biomolecular_complex</t>
   </si>
   <si>
@@ -2513,9 +2450,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%AD%B8%E8%AA%AA</t>
   </si>
   <si>
-    <t>細胞學說</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81</t>
   </si>
   <si>
@@ -2525,19 +2459,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A9%E6%87%89</t>
   </si>
   <si>
-    <t>適應</t>
+    <t>适应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E6%BC%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>遺傳漂變</t>
+    <t>遗传漂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B5%81%E5%8B%95</t>
   </si>
   <si>
-    <t>基因流動</t>
+    <t>基因流动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E6%BC%94%E5%8C%96</t>
@@ -2555,15 +2489,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E8%AE%8A</t>
   </si>
   <si>
-    <t>突變</t>
+    <t>突变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>自然選擇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D%E5%BD%A2%E6%88%90</t>
   </si>
   <si>
@@ -2573,19 +2504,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E9%96%93%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>種間關係</t>
+    <t>种间关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%A3%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>動物棲地</t>
+    <t>动物栖地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E4%BD%8D</t>
@@ -2615,9 +2546,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>發育生物學</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Regulation_of_gene_expression</t>
   </si>
   <si>
@@ -2627,15 +2555,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%9B%E6%95%B8%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>減數分裂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B5%B2%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>有絲分裂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%BD%95%E5%90%8E%E4%BF%AE%E9%A5%B0</t>
   </si>
   <si>
@@ -2651,7 +2573,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E9%A1%9E</t>
   </si>
   <si>
-    <t>脂類</t>
+    <t>脂类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%85%B8</t>
@@ -2687,27 +2609,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E9%A1%9E%E6%B3%95</t>
   </si>
   <si>
-    <t>生物分類法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
   </si>
   <si>
@@ -2753,13 +2663,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%9A%84%E6%9C%AA%E4%BE%86</t>
   </si>
   <si>
-    <t>地球的未來</t>
+    <t>地球的未来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%A7%8B%E9%80%A0</t>
   </si>
   <si>
-    <t>地球構造</t>
+    <t>地球构造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E5%9D%97%E6%9E%84%E9%80%A0%E8%AE%BA</t>
@@ -2789,7 +2699,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>蓋亞假說</t>
+    <t>盖亚假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%94</t>
@@ -2843,9 +2753,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%B3%BB%E7%BB%9F</t>
   </si>
   <si>
-    <t>生态系统</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E9%87%8E</t>
   </si>
   <si>
@@ -2879,7 +2786,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E7%9B%B8</t>
   </si>
   <si>
-    <t>動物相</t>
+    <t>动物相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%8F%8C</t>
@@ -2921,7 +2828,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2939,13 +2846,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -9441,7 +9348,7 @@
         <v>423</v>
       </c>
       <c r="F212" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9467,10 +9374,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>24</v>
@@ -9496,10 +9403,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9525,10 +9432,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9554,10 +9461,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9583,10 +9490,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
-      </c>
-      <c r="F217" t="s">
-        <v>434</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9612,10 +9519,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9641,10 +9548,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9670,10 +9577,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
         <v>439</v>
-      </c>
-      <c r="F220" t="s">
-        <v>440</v>
       </c>
       <c r="G220" t="n">
         <v>25</v>
@@ -9699,10 +9606,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
         <v>441</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9728,10 +9635,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
         <v>443</v>
-      </c>
-      <c r="F222" t="s">
-        <v>444</v>
       </c>
       <c r="G222" t="n">
         <v>23</v>
@@ -9757,10 +9664,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
         <v>445</v>
-      </c>
-      <c r="F223" t="s">
-        <v>446</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9786,10 +9693,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
         <v>447</v>
-      </c>
-      <c r="F224" t="s">
-        <v>448</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9815,10 +9722,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
         <v>449</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9844,10 +9751,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
         <v>451</v>
-      </c>
-      <c r="F226" t="s">
-        <v>452</v>
       </c>
       <c r="G226" t="n">
         <v>25</v>
@@ -9873,10 +9780,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
         <v>453</v>
-      </c>
-      <c r="F227" t="s">
-        <v>454</v>
       </c>
       <c r="G227" t="n">
         <v>16</v>
@@ -9902,10 +9809,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
         <v>455</v>
-      </c>
-      <c r="F228" t="s">
-        <v>456</v>
       </c>
       <c r="G228" t="n">
         <v>11</v>
@@ -9931,10 +9838,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
         <v>457</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9960,10 +9867,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
         <v>459</v>
-      </c>
-      <c r="F230" t="s">
-        <v>460</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
@@ -9989,10 +9896,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
         <v>461</v>
-      </c>
-      <c r="F231" t="s">
-        <v>462</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10018,10 +9925,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
         <v>463</v>
-      </c>
-      <c r="F232" t="s">
-        <v>464</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10047,10 +9954,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F233" t="s">
-        <v>466</v>
+        <v>54</v>
       </c>
       <c r="G233" t="n">
         <v>5</v>
@@ -10076,10 +9983,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F234" t="s">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -10105,10 +10012,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F235" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G235" t="n">
         <v>31</v>
@@ -10134,10 +10041,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F236" t="s">
-        <v>472</v>
+        <v>196</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -10163,10 +10070,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F237" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G237" t="n">
         <v>23</v>
@@ -10192,10 +10099,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F238" t="s">
-        <v>476</v>
+        <v>198</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10221,10 +10128,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F239" t="s">
-        <v>478</v>
+        <v>234</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10250,10 +10157,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F240" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10279,10 +10186,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F241" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>5</v>
@@ -10308,10 +10215,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F242" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10337,10 +10244,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F243" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10366,10 +10273,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F244" t="s">
-        <v>488</v>
+        <v>128</v>
       </c>
       <c r="G244" t="n">
         <v>6</v>
@@ -10395,10 +10302,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F245" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G245" t="n">
         <v>7</v>
@@ -10424,10 +10331,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F246" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10453,10 +10360,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F247" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10482,10 +10389,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F248" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10511,10 +10418,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F249" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10540,10 +10447,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F250" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10569,10 +10476,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F251" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10598,10 +10505,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F252" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10627,10 +10534,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F253" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10656,10 +10563,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F254" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G254" t="n">
         <v>4</v>
@@ -10685,10 +10592,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F255" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G255" t="n">
         <v>243</v>
@@ -10714,10 +10621,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F256" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10743,10 +10650,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F257" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10772,10 +10679,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F258" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10801,10 +10708,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F259" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10830,10 +10737,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F260" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10859,10 +10766,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F261" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10888,10 +10795,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F262" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G262" t="n">
         <v>4</v>
@@ -10917,10 +10824,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F263" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G263" t="n">
         <v>12</v>
@@ -10946,10 +10853,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F264" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -10975,10 +10882,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F265" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11004,10 +10911,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F266" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11033,10 +10940,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F267" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11062,10 +10969,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F268" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11091,10 +10998,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F269" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11120,10 +11027,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F270" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11149,10 +11056,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F271" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11178,10 +11085,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F272" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11207,10 +11114,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F273" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11236,10 +11143,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F274" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11265,10 +11172,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F275" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11294,10 +11201,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F276" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G276" t="n">
         <v>3</v>
@@ -11323,10 +11230,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F277" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G277" t="n">
         <v>4</v>
@@ -11352,10 +11259,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F278" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11381,10 +11288,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F279" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11410,10 +11317,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F280" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11439,10 +11346,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F281" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11468,10 +11375,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F282" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G282" t="n">
         <v>5</v>
@@ -11497,10 +11404,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F283" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11526,10 +11433,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F284" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11555,10 +11462,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F285" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11584,10 +11491,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F286" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11613,10 +11520,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F287" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G287" t="n">
         <v>11</v>
@@ -11642,10 +11549,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F288" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11671,10 +11578,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F289" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11700,10 +11607,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F290" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11729,10 +11636,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F291" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -11758,10 +11665,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F292" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11787,10 +11694,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F293" t="s">
-        <v>584</v>
+        <v>451</v>
       </c>
       <c r="G293" t="n">
         <v>28</v>
@@ -11816,10 +11723,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F294" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11845,10 +11752,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F295" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11874,10 +11781,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F296" t="s">
-        <v>590</v>
+        <v>210</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11903,10 +11810,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F297" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11932,10 +11839,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F298" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G298" t="n">
         <v>6</v>
@@ -11961,10 +11868,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F299" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11990,10 +11897,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F300" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12019,10 +11926,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F301" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12048,10 +11955,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F302" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -12077,10 +11984,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F303" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G303" t="n">
         <v>14</v>
@@ -12106,10 +12013,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F304" t="s">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="G304" t="n">
         <v>15</v>
@@ -12135,10 +12042,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F305" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12164,10 +12071,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F306" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12193,10 +12100,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F307" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G307" t="n">
         <v>19</v>
@@ -12222,10 +12129,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F308" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -12251,10 +12158,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F309" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G309" t="n">
         <v>8</v>
@@ -12280,10 +12187,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F310" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12309,10 +12216,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F311" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G311" t="n">
         <v>33</v>
@@ -12338,10 +12245,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F312" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G312" t="n">
         <v>75</v>
@@ -12367,10 +12274,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F313" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G313" t="n">
         <v>4</v>
@@ -12396,10 +12303,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F314" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G314" t="n">
         <v>21</v>
@@ -12425,10 +12332,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F315" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12454,10 +12361,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F316" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12483,10 +12390,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F317" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12512,10 +12419,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F318" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12541,10 +12448,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F319" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12570,10 +12477,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F320" t="s">
-        <v>638</v>
+        <v>593</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12599,10 +12506,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F321" t="s">
-        <v>640</v>
+        <v>459</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12628,10 +12535,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F322" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G322" t="n">
         <v>11</v>
@@ -12657,10 +12564,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F323" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>10</v>
@@ -12686,10 +12593,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F324" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12715,10 +12622,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F325" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12744,10 +12651,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F326" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12773,10 +12680,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F327" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12802,10 +12709,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F328" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12831,10 +12738,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F329" t="s">
-        <v>656</v>
+        <v>28</v>
       </c>
       <c r="G329" t="n">
         <v>25</v>
@@ -12860,10 +12767,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F330" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12889,10 +12796,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F331" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12918,10 +12825,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F332" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G332" t="n">
         <v>6</v>
@@ -12947,10 +12854,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F333" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12976,10 +12883,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F334" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13005,10 +12912,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F335" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13034,10 +12941,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F336" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13063,10 +12970,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F337" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13092,10 +12999,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F338" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13121,10 +13028,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F339" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -13150,10 +13057,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F340" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13179,10 +13086,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F341" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13208,10 +13115,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F342" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13237,10 +13144,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F343" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13266,10 +13173,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F344" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13295,10 +13202,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F345" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13324,10 +13231,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F346" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13353,10 +13260,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="F347" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13382,10 +13289,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F348" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13411,10 +13318,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F349" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13440,10 +13347,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="F350" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13469,10 +13376,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F351" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13498,10 +13405,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F352" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13527,10 +13434,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="F353" t="s">
-        <v>702</v>
+        <v>246</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13556,10 +13463,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13585,10 +13492,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F355" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13614,10 +13521,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="F356" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13672,10 +13579,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="F358" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13701,10 +13608,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="F359" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13730,10 +13637,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="F360" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13759,10 +13666,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="F361" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13788,10 +13695,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="F362" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13817,10 +13724,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="F363" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13846,10 +13753,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="F364" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13875,10 +13782,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="F365" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13904,10 +13811,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="F366" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13933,10 +13840,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="F367" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13962,10 +13869,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="F368" t="s">
-        <v>730</v>
+        <v>214</v>
       </c>
       <c r="G368" t="n">
         <v>3</v>
@@ -13991,10 +13898,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F369" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14020,10 +13927,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="F370" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14049,10 +13956,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F371" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -14078,10 +13985,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F372" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -14107,10 +14014,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F373" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14136,10 +14043,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F374" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14165,10 +14072,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F375" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="G375" t="n">
         <v>3</v>
@@ -14194,10 +14101,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="F376" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14223,10 +14130,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="F377" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14252,10 +14159,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F378" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14310,10 +14217,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F380" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14339,10 +14246,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="F381" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14368,10 +14275,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14426,10 +14333,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="F384" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14455,10 +14362,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F385" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14484,10 +14391,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="F386" t="s">
-        <v>760</v>
+        <v>663</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14513,10 +14420,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F387" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14542,10 +14449,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14571,10 +14478,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G389" t="n">
         <v>7</v>
@@ -14600,10 +14507,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14629,10 +14536,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G391" t="n">
         <v>9</v>
@@ -14658,10 +14565,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14687,10 +14594,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14716,10 +14623,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14745,10 +14652,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14774,10 +14681,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F396" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14803,10 +14710,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F397" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14832,10 +14739,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F398" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14890,10 +14797,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14919,10 +14826,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>346</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14948,10 +14855,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14977,10 +14884,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15006,10 +14913,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15064,10 +14971,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="F406" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15093,10 +15000,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F407" t="s">
-        <v>798</v>
+        <v>583</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15122,10 +15029,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="F408" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15151,10 +15058,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="F409" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15180,10 +15087,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="F410" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15209,10 +15116,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="F411" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15238,10 +15145,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="F412" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15267,10 +15174,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="F413" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15296,10 +15203,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="F414" t="s">
-        <v>812</v>
+        <v>240</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15325,10 +15232,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="F415" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="G415" t="n">
         <v>3</v>
@@ -15354,10 +15261,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="F416" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15383,10 +15290,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="F417" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15412,10 +15319,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="F418" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15441,10 +15348,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="F419" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15470,10 +15377,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="F420" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15499,10 +15406,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F421" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15528,10 +15435,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F422" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15557,10 +15464,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="F423" t="s">
-        <v>824</v>
+        <v>591</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15586,10 +15493,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="F424" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15615,10 +15522,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="F425" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15644,10 +15551,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="F426" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="G426" t="n">
         <v>3</v>
@@ -15673,10 +15580,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="F427" t="s">
-        <v>832</v>
+        <v>501</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15702,10 +15609,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="F428" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="G428" t="n">
         <v>13</v>
@@ -15731,10 +15638,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>462</v>
+      </c>
+      <c r="F429" t="s">
         <v>463</v>
-      </c>
-      <c r="F429" t="s">
-        <v>464</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15760,10 +15667,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="F430" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15789,10 +15696,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="F431" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15818,10 +15725,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="F432" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15847,10 +15754,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="F433" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15876,10 +15783,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="F434" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15905,10 +15812,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="F435" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15934,10 +15841,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="F436" t="s">
-        <v>848</v>
+        <v>598</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15963,10 +15870,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="F437" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15992,10 +15899,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="F438" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16021,10 +15928,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="F439" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16050,10 +15957,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="F440" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16079,10 +15986,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="F441" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16108,10 +16015,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="F442" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16137,10 +16044,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="F443" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16166,10 +16073,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="F444" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16195,10 +16102,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="F445" t="s">
-        <v>866</v>
+        <v>204</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16224,10 +16131,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="F446" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16253,10 +16160,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="F447" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16282,10 +16189,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="F448" t="s">
-        <v>870</v>
+        <v>681</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16311,10 +16218,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>871</v>
+        <v>846</v>
       </c>
       <c r="F449" t="s">
-        <v>872</v>
+        <v>499</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16340,10 +16247,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="F450" t="s">
-        <v>874</v>
+        <v>848</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16369,10 +16276,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>875</v>
+        <v>849</v>
       </c>
       <c r="F451" t="s">
-        <v>876</v>
+        <v>850</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16398,10 +16305,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>877</v>
+        <v>851</v>
       </c>
       <c r="F452" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16427,10 +16334,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="F453" t="s">
-        <v>880</v>
+        <v>854</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16456,10 +16363,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="F454" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16485,10 +16392,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>883</v>
+        <v>857</v>
       </c>
       <c r="F455" t="s">
-        <v>884</v>
+        <v>858</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16514,10 +16421,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="F456" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16543,10 +16450,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="F457" t="s">
-        <v>888</v>
+        <v>862</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16572,10 +16479,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="F458" t="s">
-        <v>890</v>
+        <v>794</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16601,10 +16508,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="F459" t="s">
-        <v>892</v>
+        <v>74</v>
       </c>
       <c r="G459" t="n">
         <v>6</v>
@@ -16630,10 +16537,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="F460" t="s">
-        <v>894</v>
+        <v>124</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16659,10 +16566,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>895</v>
+        <v>866</v>
       </c>
       <c r="F461" t="s">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="G461" t="n">
         <v>39</v>
@@ -16688,10 +16595,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>897</v>
+        <v>867</v>
       </c>
       <c r="F462" t="s">
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="G462" t="n">
         <v>10</v>
@@ -16717,10 +16624,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>899</v>
+        <v>869</v>
       </c>
       <c r="F463" t="s">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -16746,10 +16653,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>901</v>
+        <v>871</v>
       </c>
       <c r="F464" t="s">
-        <v>902</v>
+        <v>872</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -16775,10 +16682,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>903</v>
+        <v>873</v>
       </c>
       <c r="F465" t="s">
-        <v>904</v>
+        <v>874</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -16804,10 +16711,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>905</v>
+        <v>875</v>
       </c>
       <c r="F466" t="s">
-        <v>906</v>
+        <v>876</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -16833,10 +16740,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>907</v>
+        <v>877</v>
       </c>
       <c r="F467" t="s">
-        <v>908</v>
+        <v>878</v>
       </c>
       <c r="G467" t="n">
         <v>12</v>
@@ -16862,10 +16769,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="F468" t="s">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16891,10 +16798,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>911</v>
+        <v>881</v>
       </c>
       <c r="F469" t="s">
-        <v>912</v>
+        <v>882</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16920,10 +16827,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="F470" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16949,10 +16856,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="F471" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16978,10 +16885,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="F472" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17007,10 +16914,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="F473" t="s">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17036,10 +16943,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="F474" t="s">
-        <v>922</v>
+        <v>892</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17065,10 +16972,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="F475" t="s">
-        <v>924</v>
+        <v>894</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17094,10 +17001,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="F476" t="s">
-        <v>926</v>
+        <v>896</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17123,10 +17030,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>927</v>
+        <v>897</v>
       </c>
       <c r="F477" t="s">
-        <v>928</v>
+        <v>898</v>
       </c>
       <c r="G477" t="n">
         <v>2</v>
@@ -17152,10 +17059,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>929</v>
+        <v>899</v>
       </c>
       <c r="F478" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17181,10 +17088,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="F479" t="s">
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17210,10 +17117,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="F480" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17239,10 +17146,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>935</v>
+        <v>905</v>
       </c>
       <c r="F481" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17268,10 +17175,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
       <c r="F482" t="s">
-        <v>938</v>
+        <v>908</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17297,10 +17204,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
       <c r="F483" t="s">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17326,10 +17233,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>941</v>
+        <v>911</v>
       </c>
       <c r="F484" t="s">
-        <v>942</v>
+        <v>798</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17355,10 +17262,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>943</v>
+        <v>912</v>
       </c>
       <c r="F485" t="s">
-        <v>944</v>
+        <v>913</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17384,10 +17291,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>945</v>
+        <v>914</v>
       </c>
       <c r="F486" t="s">
-        <v>946</v>
+        <v>915</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17413,10 +17320,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="F487" t="s">
-        <v>948</v>
+        <v>917</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17442,10 +17349,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>949</v>
+        <v>918</v>
       </c>
       <c r="F488" t="s">
-        <v>950</v>
+        <v>919</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17471,10 +17378,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="F489" t="s">
-        <v>952</v>
+        <v>921</v>
       </c>
       <c r="G489" t="n">
         <v>7</v>
@@ -17500,10 +17407,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>953</v>
+        <v>922</v>
       </c>
       <c r="F490" t="s">
-        <v>954</v>
+        <v>923</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17529,10 +17436,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>955</v>
+        <v>924</v>
       </c>
       <c r="F491" t="s">
-        <v>956</v>
+        <v>925</v>
       </c>
       <c r="G491" t="n">
         <v>3</v>
@@ -17558,10 +17465,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>957</v>
+        <v>926</v>
       </c>
       <c r="F492" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17587,10 +17494,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="F493" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17616,10 +17523,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>961</v>
+        <v>930</v>
       </c>
       <c r="F494" t="s">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -17645,10 +17552,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="F495" t="s">
-        <v>964</v>
+        <v>933</v>
       </c>
       <c r="G495" t="n">
         <v>3</v>
@@ -17674,10 +17581,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="F496" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="G496" t="n">
         <v>5</v>
@@ -17703,10 +17610,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>967</v>
+        <v>936</v>
       </c>
       <c r="F497" t="s">
-        <v>968</v>
+        <v>937</v>
       </c>
       <c r="G497" t="n">
         <v>3</v>
@@ -17732,10 +17639,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>969</v>
+        <v>938</v>
       </c>
       <c r="F498" t="s">
-        <v>970</v>
+        <v>939</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17761,10 +17668,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>971</v>
+        <v>940</v>
       </c>
       <c r="F499" t="s">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17790,10 +17697,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="F500" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17819,10 +17726,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="F501" t="s">
-        <v>976</v>
+        <v>945</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17848,10 +17755,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>977</v>
+        <v>946</v>
       </c>
       <c r="F502" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>

--- a/xlsx/生物学_intext.xlsx
+++ b/xlsx/生物学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>大肠杆菌</t>
   </si>
   <si>
-    <t>政策_政策_政治學_生物学</t>
+    <t>体育运动_体育运动_竞争_生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%AA%E7%BE%9A</t>
